--- a/doc/LG_GeolAssetsCatalogues_V1_changes_all.xlsx
+++ b/doc/LG_GeolAssetsCatalogues_V1_changes_all.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7060" tabRatio="884"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7060" tabRatio="884" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -2123,8 +2123,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5063612" y="834550"/>
-          <a:ext cx="13028842" cy="8302465"/>
+          <a:off x="5080047" y="861444"/>
+          <a:ext cx="13091595" cy="8599795"/>
           <a:chOff x="5327766" y="462648"/>
           <a:chExt cx="12988408" cy="8308516"/>
         </a:xfrm>
@@ -4651,10 +4651,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="10937994" cy="4570225"/>
     <xdr:sp macro="" textlink="">
@@ -4664,7 +4664,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1663700" y="8756650"/>
+          <a:off x="3111500" y="6750050"/>
           <a:ext cx="10937994" cy="4570225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5142,11 +5142,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>556491</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>149513</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>16911</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8460509" cy="9564798"/>
+    <xdr:ext cx="8460509" cy="10253704"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="Textfeld 8"/>
@@ -5154,8 +5154,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="556491" y="9725313"/>
-          <a:ext cx="8460509" cy="9564798"/>
+          <a:off x="0" y="9355146"/>
+          <a:ext cx="8460509" cy="10253704"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5570,6 +5570,30 @@
             <a:t>               </a:t>
           </a:r>
           <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="de-CH" sz="1100" u="sng">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -5591,7 +5615,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>: Struktur NationalRelevance (ab Zeile 24): TypeNatRel sollte [1..*] sein? Es kann ja aus mehreren Gründen NatRel sein. [Es war auch in meinem KorrekturExcel falsch, ich hatte es damals nur im Mail erwähnt, dass es [1..*] sein sollte]</a:t>
+            <a:t>: Struktur NationalRelevance (ab Zeile 24): TypeNatRel sollte [1..*] sein? Es kann ja aus mehreren Gründen NatRel sein. [Es war auch in meinem KorrekturExcel falsch, ich hatte es damals nur im Mail erwähnt, dass es [1..*] sein sollte] </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt; Korrektur auf 0..*</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5608,6 +5644,30 @@
             <a:t>               </a:t>
           </a:r>
           <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="de-CH" sz="1100" u="sng">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -5629,10 +5689,39 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> Struktur StatusWork (ab Zeile 35): StatusWorkDate sollte m.E. auch [1], also Mandatory sein.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
+            <a:t> Struktur StatusWork (ab Zeile 35): StatusWorkDate sollte m.E. auch [1], also Mandatory sein. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt; MANDATORY ergänzt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="de-CH" sz="1100">
               <a:solidFill>
@@ -5646,6 +5735,30 @@
             <a:t>               </a:t>
           </a:r>
           <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="de-CH" sz="1100" u="sng">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -5667,13 +5780,46 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>: Struktur AutoCat (ab Zeile 46): Beide [1] - Mandatory, sonst kannst du ein ein AutoCatLabel erfassen nur mit Score o.ä.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
+            <a:t>: Struktur AutoCat (ab Zeile 46): Beide [1] - Mandatory, sonst kannst du ein ein AutoCatLabel erfassen nur mit Score o.ä</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="de-CH" sz="1100">
               <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt; MANDATORY ergänzt</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:effectLst/>
@@ -5705,10 +5851,27 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>: Struktur PathtoFile (ab Zeile 87): Wofür brauchst du die?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
+            <a:t>: Struktur PathtoFile (ab Zeile 87): Wofür brauchst du die? </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="de-CH" sz="1100">
               <a:solidFill>
@@ -5719,7 +5882,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>               </a:t>
+            <a:t>             </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="de-CH" sz="1100" u="sng">
@@ -5745,162 +5956,41 @@
             </a:rPr>
             <a:t>: Struktur ObjectClass (ab Zeile 95): PathtoImage ist [1] nicht [1..*]. Wir sind hier ja auf Objekt-Stufe, d.h. jedes Objekt wird eigenständig erfasst. Ein Objekt kann nicht auf mehreren Seiten liegen, da der das Modell Seite für Seite nach Objekten detektiert.</a:t>
           </a:r>
-        </a:p>
-        <a:p>
           <a:r>
             <a:rPr lang="de-CH" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>               </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Frage:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> Struktur TestDesc (ab Zeile 129): Scheint ein dummy zu sein?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>               </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Frage: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Beschreibung Attribut RelativePath (Zeile 193): Warum ist die inkl. Dateiendung und Beispiele so wichtig? Hier wollen wir doch einfach einen «Link» ins Filesystem/S3 o.ä. zum Objekt. In der Applikation ist dies ja dann kein «Sichtbares Feld»</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>               </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Anmerkung</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: Constraints ab Zeile 233: Du hast da noch etwas gnusch mit den Beschreibungen und Attributwerten zw. Expire und Availability. Die Constraints selber scheinen m.E. aber zu stimmen.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>               </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>GeolAssetsCatalogues_V2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
-            </a:rPr>
-            <a:t>https://github.com/swissgeol/dmAssets/blob/work220314_on/src/GeolAssetsCatalogues_V2.ili</a:t>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt; STRUCTURE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> gelöscht und durchMANDATORY  TEXT ersetzt</a:t>
           </a:r>
           <a:endParaRPr lang="de-CH" sz="1100">
             <a:solidFill>
@@ -5923,24 +6013,44 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
+            <a:t>              </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;OK</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="de-CH" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>LG_GeolAssetsCatalogues_V2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="de-CH" sz="1100" u="sng">
               <a:solidFill>
@@ -5950,9 +6060,226 @@
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Frage:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Struktur TestDesc (ab Zeile 129): Scheint ein dummy zu sein?</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> &gt; Structure gelöscht</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>               </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Frage: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Beschreibung Attribut RelativePath (Zeile 193): Warum ist die inkl. Dateiendung und Beispiele so wichtig? Hier wollen wir doch einfach einen «Link» ins Filesystem/S3 o.ä. zum Objekt. In der Applikation ist dies ja dann kein «Sichtbares Feld» </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt; Ja,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> aber aus meiner Sicht brauchst du den vollständigen Pfdad zum File. Und dazugehört die File-Endung.</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>               </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Anmerkung</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Constraints ab Zeile 233: Du hast da noch etwas gnusch mit den Beschreibungen und Attributwerten zw. Expire und Availability. Die Constraints selber scheinen m.E. aber zu stimmen. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt; Kommentare bzw. Beschreibung angepasst</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>               </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GeolAssetsCatalogues_V2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
             </a:rPr>
-            <a:t>https://github.com/swissgeol/dmAssets/blob/work220314_on/src/LG_GeolAssetsCatalogues_V2.ili</a:t>
+            <a:t>https://github.com/swissgeol/dmAssets/blob/work220314_on/src/GeolAssetsCatalogues_V2.ili</a:t>
           </a:r>
           <a:endParaRPr lang="de-CH" sz="1100">
             <a:solidFill>
@@ -5989,7 +6316,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Wertelisten für GeolAssetsCatalogues_V2</a:t>
+            <a:t>LG_GeolAssetsCatalogues_V2</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6004,7 +6331,7 @@
               <a:cs typeface="+mn-cs"/>
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
             </a:rPr>
-            <a:t>https://github.com/swissgeol/dmAssets/blob/work220314_on/src/GeolAssetsCatalogues_V2_export_220317_00.xml</a:t>
+            <a:t>https://github.com/swissgeol/dmAssets/blob/work220314_on/src/LG_GeolAssetsCatalogues_V2.ili</a:t>
           </a:r>
           <a:endParaRPr lang="de-CH" sz="1100">
             <a:solidFill>
@@ -6027,9 +6354,85 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Wertelisten für GeolAssetsCatalogues_V2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>https://github.com/swissgeol/dmAssets/blob/work220314_on/src/GeolAssetsCatalogues_V2_export_220317_00.xml</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>               </a:t>
           </a:r>
           <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="de-CH" sz="1100" u="sng">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -6051,10 +6454,39 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>: AutoCatLabel: Wert other (Andere) fehlt (siehe bereits letztes .xlsx Korrekturfile von mir)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
+            <a:t>: AutoCatLabel: Wert other (Andere) fehlt (siehe bereits letztes .xlsx Korrekturfile von mir) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt; Wert ergänzt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="de-CH" sz="1100">
               <a:solidFill>
@@ -6065,7 +6497,43 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>               </a:t>
+            <a:t>              </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="de-CH" sz="1100" u="sng">
@@ -6089,8 +6557,49 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>: AutoCatItem: Wert Geological Section fehlt (siehe bereits letztes .xlsx Korrekturfile von mir)</a:t>
-          </a:r>
+            <a:t>: AutoCatItem: Wert Geological Section fehlt (siehe bereits letztes .xlsx Korrekturfile von mir) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt; Wert ergänzt</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-CH" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -6553,7 +7062,7 @@
   </sheetPr>
   <dimension ref="A4:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView topLeftCell="G22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -6670,7 +7179,7 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8860,8 +9369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AQ58" sqref="AQ58"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
